--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Neuropatía (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Neuropatía (UPTO).xlsx
@@ -611,7 +611,7 @@
         <v>11.70327072102092</v>
       </c>
       <c r="N2" t="n">
-        <v>7.482940335124244</v>
+        <v>7.482940335124243</v>
       </c>
       <c r="O2" t="n">
         <v>16.22961204113254</v>
@@ -632,7 +632,7 @@
         <v>1.3515773778711</v>
       </c>
       <c r="U2" t="n">
-        <v>4.81021595321194</v>
+        <v>4.810215953211941</v>
       </c>
       <c r="V2" t="n">
         <v>1.358189690265575</v>
@@ -644,7 +644,7 @@
         <v>2.57046551629965</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2828206681232806</v>
+        <v>0.2828206681232805</v>
       </c>
       <c r="Z2" t="n">
         <v>0.01132978067713119</v>
@@ -676,19 +676,19 @@
         <v>-11.91487812656873</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.154634431994834</v>
+        <v>-9.154634431994831</v>
       </c>
       <c r="I3" t="n">
         <v>-14.10599705927117</v>
       </c>
       <c r="J3" t="n">
-        <v>3.399594484997181</v>
+        <v>3.399594484997177</v>
       </c>
       <c r="K3" t="n">
-        <v>1.491280349270609</v>
+        <v>1.491280349270607</v>
       </c>
       <c r="L3" t="n">
-        <v>5.82969816403924</v>
+        <v>5.829698164039238</v>
       </c>
       <c r="M3" t="n">
         <v>16.25033448955483</v>
@@ -697,13 +697,13 @@
         <v>10.47051614059044</v>
       </c>
       <c r="O3" t="n">
-        <v>22.02671307157141</v>
+        <v>22.0267130715714</v>
       </c>
       <c r="P3" t="n">
         <v>9.287570808745494</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.699827602556336</v>
+        <v>5.699827602556337</v>
       </c>
       <c r="R3" t="n">
         <v>12.90722260892895</v>
@@ -730,7 +730,7 @@
         <v>0.6476210890281391</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0364147870474141</v>
+        <v>0.03641478704741412</v>
       </c>
       <c r="AA3" t="n">
         <v>1.566433083161281</v>
@@ -759,25 +759,25 @@
         <v>-10.63146785457629</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.873790552389808</v>
+        <v>-7.873790552389805</v>
       </c>
       <c r="I4" t="n">
-        <v>-12.74719646810359</v>
+        <v>-12.74719646810358</v>
       </c>
       <c r="J4" t="n">
-        <v>6.745434546141535</v>
+        <v>6.745434546141533</v>
       </c>
       <c r="K4" t="n">
-        <v>4.065624190647776</v>
+        <v>4.065624190647777</v>
       </c>
       <c r="L4" t="n">
-        <v>9.821884699433189</v>
+        <v>9.821884699433191</v>
       </c>
       <c r="M4" t="n">
         <v>19.21874896653693</v>
       </c>
       <c r="N4" t="n">
-        <v>12.78182860296326</v>
+        <v>12.78182860296327</v>
       </c>
       <c r="O4" t="n">
         <v>25.57968417742774</v>
@@ -810,10 +810,10 @@
         <v>4.660795941590159</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5893659432870298</v>
+        <v>0.5893659432870297</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04052657954742665</v>
+        <v>0.04052657954742666</v>
       </c>
       <c r="AA4" t="n">
         <v>1.42037630688135</v>
@@ -842,13 +842,13 @@
         <v>-2.590305935609486</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.87305480166971</v>
+        <v>-2.873054801669708</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.804643836232106</v>
+        <v>-1.804643836232103</v>
       </c>
       <c r="J5" t="n">
-        <v>1.506733649202568</v>
+        <v>1.506733649202566</v>
       </c>
       <c r="K5" t="n">
         <v>-0.08040682165864688</v>
@@ -857,16 +857,16 @@
         <v>3.771374775809424</v>
       </c>
       <c r="M5" t="n">
-        <v>6.244197270353902</v>
+        <v>6.244197270353903</v>
       </c>
       <c r="N5" t="n">
         <v>3.170220936652559</v>
       </c>
       <c r="O5" t="n">
-        <v>9.699622885946546</v>
+        <v>9.699622885946548</v>
       </c>
       <c r="P5" t="n">
-        <v>6.088182335978886</v>
+        <v>6.088182335978885</v>
       </c>
       <c r="Q5" t="n">
         <v>3.561807102747571</v>
@@ -896,7 +896,7 @@
         <v>0.5529427964824738</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02021736595991538</v>
+        <v>0.02021736595991539</v>
       </c>
       <c r="AA5" t="n">
         <v>1.370570371869727</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.841392144918036</v>
+        <v>3.841392144918035</v>
       </c>
       <c r="E6" t="n">
-        <v>2.340756357551782</v>
+        <v>2.340756357551781</v>
       </c>
       <c r="F6" t="n">
         <v>5.658793849038804</v>
@@ -1002,16 +1002,16 @@
         <v>-1.755570813789679</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.178969399512413</v>
+        <v>-3.178969399512409</v>
       </c>
       <c r="G7" t="n">
         <v>4.687626208265005</v>
       </c>
       <c r="H7" t="n">
-        <v>3.157201974162724</v>
+        <v>3.157201974162725</v>
       </c>
       <c r="I7" t="n">
-        <v>6.240004215114773</v>
+        <v>6.240004215114775</v>
       </c>
       <c r="J7" t="n">
         <v>16.54835741461498</v>
@@ -1029,7 +1029,7 @@
         <v>14.64074855583427</v>
       </c>
       <c r="O7" t="n">
-        <v>28.38799665170997</v>
+        <v>28.38799665170996</v>
       </c>
       <c r="P7" t="n">
         <v>8.445337262308232</v>
@@ -1056,13 +1056,13 @@
         <v>0.752972177481478</v>
       </c>
       <c r="X7" t="n">
-        <v>3.39709168854625</v>
+        <v>3.397091688546249</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.378636471877621</v>
+        <v>0.3786364718776211</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02561208568250935</v>
+        <v>0.02561208568250936</v>
       </c>
       <c r="AA7" t="n">
         <v>0.9646457655240107</v>
@@ -1085,16 +1085,16 @@
         <v>2.281783537188868</v>
       </c>
       <c r="F8" t="n">
-        <v>2.333121974399894</v>
+        <v>2.333121974399898</v>
       </c>
       <c r="G8" t="n">
         <v>11.28490063700106</v>
       </c>
       <c r="H8" t="n">
-        <v>8.782691642737667</v>
+        <v>8.782691642737671</v>
       </c>
       <c r="I8" t="n">
-        <v>13.40864003664204</v>
+        <v>13.40864003664205</v>
       </c>
       <c r="J8" t="n">
         <v>31.51879786973363</v>
@@ -1103,7 +1103,7 @@
         <v>22.31669283468987</v>
       </c>
       <c r="L8" t="n">
-        <v>39.96478712701651</v>
+        <v>39.9647871270165</v>
       </c>
       <c r="M8" t="n">
         <v>37.01778351590525</v>
@@ -1112,7 +1112,7 @@
         <v>26.25376315824383</v>
       </c>
       <c r="O8" t="n">
-        <v>47.24507599252082</v>
+        <v>47.24507599252081</v>
       </c>
       <c r="P8" t="n">
         <v>10.84388791836867</v>
@@ -1136,13 +1136,13 @@
         <v>1.332715157390823</v>
       </c>
       <c r="W8" t="n">
-        <v>0.551361838888671</v>
+        <v>0.5513618388886709</v>
       </c>
       <c r="X8" t="n">
         <v>2.681191728025327</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.203192636064093</v>
+        <v>0.2031926360640932</v>
       </c>
       <c r="Z8" t="n">
         <v>0.03292192148722388</v>
@@ -1168,13 +1168,13 @@
         <v>-1.888491580367876</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.312273023433038</v>
+        <v>-2.312273023433036</v>
       </c>
       <c r="G9" t="n">
         <v>3.379803184067571</v>
       </c>
       <c r="H9" t="n">
-        <v>1.712468493827789</v>
+        <v>1.71246849382779</v>
       </c>
       <c r="I9" t="n">
         <v>5.293018495201103</v>
@@ -1192,7 +1192,7 @@
         <v>11.39685075339537</v>
       </c>
       <c r="N9" t="n">
-        <v>7.080410945258944</v>
+        <v>7.080410945258943</v>
       </c>
       <c r="O9" t="n">
         <v>15.96203722242204</v>
@@ -1251,7 +1251,7 @@
         <v>4.222355874621011</v>
       </c>
       <c r="F10" t="n">
-        <v>6.67627511486779</v>
+        <v>6.676275114867794</v>
       </c>
       <c r="G10" t="n">
         <v>17.98915987789599</v>
@@ -1290,25 +1290,25 @@
         <v>13.79564798663881</v>
       </c>
       <c r="S10" t="n">
-        <v>3.285791013978059</v>
+        <v>3.285791013978058</v>
       </c>
       <c r="T10" t="n">
         <v>1.542691080773119</v>
       </c>
       <c r="U10" t="n">
-        <v>5.820377563361912</v>
+        <v>5.820377563361911</v>
       </c>
       <c r="V10" t="n">
         <v>1.081185993713946</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4048586957942937</v>
+        <v>0.4048586957942936</v>
       </c>
       <c r="X10" t="n">
         <v>2.264924742076318</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1592660234172858</v>
+        <v>0.159266023417286</v>
       </c>
       <c r="Z10" t="n">
         <v>0.01907786269711284</v>
@@ -1364,7 +1364,7 @@
         <v>18.77034969670427</v>
       </c>
       <c r="P11" t="n">
-        <v>5.3318246377004</v>
+        <v>5.331824637700399</v>
       </c>
       <c r="Q11" t="n">
         <v>2.866097787513176</v>
@@ -1394,10 +1394,10 @@
         <v>0.2313905896342223</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.003950876684420386</v>
+        <v>0.003950876684420391</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6629118495166406</v>
+        <v>0.6629118495166407</v>
       </c>
     </row>
     <row r="12">
@@ -1426,7 +1426,7 @@
         <v>13.62998314069297</v>
       </c>
       <c r="I12" t="n">
-        <v>27.73188561038612</v>
+        <v>27.73188561038611</v>
       </c>
       <c r="J12" t="n">
         <v>9.274429061293866</v>
@@ -1441,13 +1441,13 @@
         <v>-1.114445880977559</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.986180347958607</v>
+        <v>-1.986180347958609</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5182563246987826</v>
+        <v>0.5182563246987861</v>
       </c>
       <c r="P12" t="n">
-        <v>1.836497279422959</v>
+        <v>1.836497279422958</v>
       </c>
       <c r="Q12" t="n">
         <v>0.6184587135172293</v>
@@ -1462,7 +1462,7 @@
         <v>0.7027378817608357</v>
       </c>
       <c r="U12" t="n">
-        <v>3.12483213900636</v>
+        <v>3.124832139006361</v>
       </c>
       <c r="V12" t="n">
         <v>1.043658205914828</v>
@@ -1474,13 +1474,13 @@
         <v>2.024349166534211</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2452600101100494</v>
+        <v>0.2452600101100493</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.007064316828259519</v>
+        <v>-0.007064316828259523</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.7029028905951864</v>
+        <v>0.7029028905951863</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>12.21147217559479</v>
       </c>
       <c r="F13" t="n">
-        <v>23.04658537888275</v>
+        <v>23.04658537888274</v>
       </c>
       <c r="G13" t="n">
-        <v>29.33129246206553</v>
+        <v>29.33129246206554</v>
       </c>
       <c r="H13" t="n">
         <v>20.46977413104038</v>
@@ -1518,7 +1518,7 @@
         <v>16.61111474379114</v>
       </c>
       <c r="L13" t="n">
-        <v>31.97161679831164</v>
+        <v>31.97161679831163</v>
       </c>
       <c r="M13" t="n">
         <v>13.88025950633675</v>
@@ -1533,7 +1533,7 @@
         <v>4.110860746290117</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.986109711157602</v>
+        <v>1.986109711157601</v>
       </c>
       <c r="R13" t="n">
         <v>7.076699950837309</v>
@@ -1542,7 +1542,7 @@
         <v>1.517025031885896</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5100096649902655</v>
+        <v>0.5100096649902656</v>
       </c>
       <c r="U13" t="n">
         <v>3.169606594300435</v>
@@ -1551,19 +1551,19 @@
         <v>0.5035899448448301</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09004517814527147</v>
+        <v>0.09004517814527152</v>
       </c>
       <c r="X13" t="n">
         <v>1.305917291876966</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0732287079225469</v>
+        <v>0.07322870792254699</v>
       </c>
       <c r="Z13" t="n">
         <v>-0.005499829269906669</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3130525128751167</v>
+        <v>0.3130525128751168</v>
       </c>
     </row>
     <row r="14">
@@ -1628,7 +1628,7 @@
         <v>1.05317303329917</v>
       </c>
       <c r="U14" t="n">
-        <v>4.356004531677332</v>
+        <v>4.356004531677333</v>
       </c>
       <c r="V14" t="n">
         <v>0.9609490527869515</v>
@@ -1640,7 +1640,7 @@
         <v>2.00353807168591</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1742729551017881</v>
+        <v>0.1742729551017882</v>
       </c>
       <c r="Z14" t="n">
         <v>0.006147553102312376</v>
@@ -1666,16 +1666,16 @@
         <v>1.29236535077858</v>
       </c>
       <c r="F15" t="n">
-        <v>5.074324732316601</v>
+        <v>5.074324732316597</v>
       </c>
       <c r="G15" t="n">
-        <v>6.734266255349755</v>
+        <v>6.734266255349754</v>
       </c>
       <c r="H15" t="n">
-        <v>3.408524828655416</v>
+        <v>3.408524828655414</v>
       </c>
       <c r="I15" t="n">
-        <v>10.49670938680697</v>
+        <v>10.49670938680696</v>
       </c>
       <c r="J15" t="n">
         <v>-0.386127186592045</v>
@@ -1693,10 +1693,10 @@
         <v>-4.13007426728532</v>
       </c>
       <c r="O15" t="n">
-        <v>-2.627467299678312</v>
+        <v>-2.627467299678308</v>
       </c>
       <c r="P15" t="n">
-        <v>2.888793863212278</v>
+        <v>2.888793863212277</v>
       </c>
       <c r="Q15" t="n">
         <v>1.423786602938806</v>
@@ -1723,10 +1723,10 @@
         <v>3.286365476820572</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.4582645039368086</v>
+        <v>0.4582645039368084</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.004019944872416668</v>
+        <v>0.004019944872416671</v>
       </c>
       <c r="AA15" t="n">
         <v>1.174707660578172</v>
@@ -1746,10 +1746,10 @@
         <v>2.691875551243342</v>
       </c>
       <c r="E16" t="n">
-        <v>1.425286117356777</v>
+        <v>1.425286117356776</v>
       </c>
       <c r="F16" t="n">
-        <v>4.207628356237227</v>
+        <v>4.207628356237225</v>
       </c>
       <c r="G16" t="n">
         <v>8.042089279547191</v>
@@ -1764,7 +1764,7 @@
         <v>7.607899905062816</v>
       </c>
       <c r="K16" t="n">
-        <v>4.343137737315779</v>
+        <v>4.343137737315778</v>
       </c>
       <c r="L16" t="n">
         <v>11.30490106822601</v>
@@ -1776,10 +1776,10 @@
         <v>3.430263343290004</v>
       </c>
       <c r="O16" t="n">
-        <v>9.798492129609611</v>
+        <v>9.798492129609613</v>
       </c>
       <c r="P16" t="n">
-        <v>4.867218444568604</v>
+        <v>4.867218444568603</v>
       </c>
       <c r="Q16" t="n">
         <v>2.681819026391997</v>
@@ -1806,7 +1806,7 @@
         <v>3.134861046777067</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3947809147707985</v>
+        <v>0.3947809147707984</v>
       </c>
       <c r="Z16" t="n">
         <v>0.01076666000558833</v>
@@ -1838,13 +1838,13 @@
         <v>17.96941402736044</v>
       </c>
       <c r="H17" t="n">
-        <v>12.01091471166302</v>
+        <v>12.01091471166301</v>
       </c>
       <c r="I17" t="n">
         <v>24.22783669110769</v>
       </c>
       <c r="J17" t="n">
-        <v>8.989695820118792</v>
+        <v>8.989695820118794</v>
       </c>
       <c r="K17" t="n">
         <v>5.33365431542675</v>
@@ -1856,10 +1856,10 @@
         <v>-0.4871055042393735</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.416232415047189</v>
+        <v>-1.41623241504719</v>
       </c>
       <c r="O17" t="n">
-        <v>1.193078624888525</v>
+        <v>1.193078624888528</v>
       </c>
       <c r="P17" t="n">
         <v>2.002080198347335</v>
@@ -1889,10 +1889,10 @@
         <v>2.027725052049307</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2407099652753488</v>
+        <v>0.2407099652753487</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0005961475002227209</v>
+        <v>0.0005961475002227105</v>
       </c>
       <c r="AA17" t="n">
         <v>0.6707544333438936</v>
@@ -1921,16 +1921,16 @@
         <v>-11.99278328485316</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.683324766904787</v>
+        <v>-8.68332476690478</v>
       </c>
       <c r="I18" t="n">
-        <v>-14.4992209277428</v>
+        <v>-14.49922092774279</v>
       </c>
       <c r="J18" t="n">
-        <v>6.603067925553999</v>
+        <v>6.603067925553997</v>
       </c>
       <c r="K18" t="n">
-        <v>4.041344005973891</v>
+        <v>4.041344005973892</v>
       </c>
       <c r="L18" t="n">
         <v>9.590558733135754</v>
@@ -1939,7 +1939,7 @@
         <v>19.53241915490602</v>
       </c>
       <c r="N18" t="n">
-        <v>13.06680256941897</v>
+        <v>13.06680256941898</v>
       </c>
       <c r="O18" t="n">
         <v>25.91709532752261</v>
@@ -1954,13 +1954,13 @@
         <v>13.40307084064592</v>
       </c>
       <c r="S18" t="n">
-        <v>5.536840482828498</v>
+        <v>5.536840482828499</v>
       </c>
       <c r="T18" t="n">
         <v>2.974321298564246</v>
       </c>
       <c r="U18" t="n">
-        <v>8.37347305084017</v>
+        <v>8.373473050840168</v>
       </c>
       <c r="V18" t="n">
         <v>2.733150864302313</v>
@@ -1969,7 +1969,7 @@
         <v>1.160560431841243</v>
       </c>
       <c r="X18" t="n">
-        <v>4.662483884347707</v>
+        <v>4.662483884347708</v>
       </c>
       <c r="Y18" t="n">
         <v>0.5870909208696795</v>
@@ -2004,7 +2004,7 @@
         <v>27.34281172272967</v>
       </c>
       <c r="H19" t="n">
-        <v>18.62027354344796</v>
+        <v>18.62027354344795</v>
       </c>
       <c r="I19" t="n">
         <v>35.70556017163892</v>
@@ -2022,13 +2022,13 @@
         <v>3.881372507879362</v>
       </c>
       <c r="N19" t="n">
-        <v>1.781522677419923</v>
+        <v>1.781522677419921</v>
       </c>
       <c r="O19" t="n">
-        <v>6.61196508612684</v>
+        <v>6.611965086126846</v>
       </c>
       <c r="P19" t="n">
-        <v>2.173831894664886</v>
+        <v>2.173831894664885</v>
       </c>
       <c r="Q19" t="n">
         <v>0.7677790873852239</v>
@@ -2037,13 +2037,13 @@
         <v>4.231855875374692</v>
       </c>
       <c r="S19" t="n">
-        <v>1.304369772106967</v>
+        <v>1.304369772106966</v>
       </c>
       <c r="T19" t="n">
         <v>0.4110797214224726</v>
       </c>
       <c r="U19" t="n">
-        <v>2.666557431974216</v>
+        <v>2.666557431974217</v>
       </c>
       <c r="V19" t="n">
         <v>0.6435337182258314</v>
@@ -2055,7 +2055,7 @@
         <v>1.458265693299245</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1355747858798819</v>
+        <v>0.1355747858798818</v>
       </c>
       <c r="Z19" t="n">
         <v>-0.01033142832095778</v>
@@ -2093,22 +2093,22 @@
         <v>21.9930238701205</v>
       </c>
       <c r="J20" t="n">
-        <v>5.572672448680667</v>
+        <v>5.572672448680668</v>
       </c>
       <c r="K20" t="n">
         <v>2.747170381712637</v>
       </c>
       <c r="L20" t="n">
-        <v>9.015251713698756</v>
+        <v>9.01525171369876</v>
       </c>
       <c r="M20" t="n">
         <v>-3.298684887036927</v>
       </c>
       <c r="N20" t="n">
-        <v>-3.585057894192163</v>
+        <v>-3.585057894192165</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.191186905920375</v>
+        <v>-2.191186905920372</v>
       </c>
       <c r="P20" t="n">
         <v>1.750621431264183</v>
@@ -2138,10 +2138,10 @@
         <v>2.309078845909242</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.297827599807783</v>
+        <v>0.2978275998077828</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.001600528917669269</v>
+        <v>-0.001600528917669276</v>
       </c>
       <c r="AA20" t="n">
         <v>0.8087740953110018</v>
@@ -2164,37 +2164,37 @@
         <v>3.244582142978755</v>
       </c>
       <c r="F21" t="n">
-        <v>8.263718607312441</v>
+        <v>8.263718607312438</v>
       </c>
       <c r="G21" t="n">
         <v>9.378991957619064</v>
       </c>
       <c r="H21" t="n">
-        <v>5.498902922775421</v>
+        <v>5.49890292277542</v>
       </c>
       <c r="I21" t="n">
-        <v>13.60753443761377</v>
+        <v>13.60753443761376</v>
       </c>
       <c r="J21" t="n">
         <v>3.102079495139849</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9465300334631515</v>
+        <v>0.9465300334631532</v>
       </c>
       <c r="L21" t="n">
-        <v>5.936563889270994</v>
+        <v>5.936563889270996</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.107195660234016</v>
+        <v>-1.107195660234018</v>
       </c>
       <c r="N21" t="n">
         <v>-2.1037357713682</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5880926560831519</v>
+        <v>0.5880926560831554</v>
       </c>
       <c r="P21" t="n">
-        <v>3.098856900564336</v>
+        <v>3.098856900564335</v>
       </c>
       <c r="Q21" t="n">
         <v>1.538148589553617</v>
@@ -2203,13 +2203,13 @@
         <v>4.867368600533755</v>
       </c>
       <c r="S21" t="n">
-        <v>2.871031431080514</v>
+        <v>2.871031431080513</v>
       </c>
       <c r="T21" t="n">
         <v>1.384984146005355</v>
       </c>
       <c r="U21" t="n">
-        <v>4.544430715396865</v>
+        <v>4.544430715396866</v>
       </c>
       <c r="V21" t="n">
         <v>1.703963407911821</v>
@@ -2221,10 +2221,10 @@
         <v>3.004167711581863</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.4022843806130496</v>
+        <v>0.4022843806130495</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.004301505208188098</v>
+        <v>0.004301505208188101</v>
       </c>
       <c r="AA21" t="n">
         <v>1.044725112923887</v>
@@ -2250,7 +2250,7 @@
         <v>12.47059374813727</v>
       </c>
       <c r="G22" t="n">
-        <v>23.33210368851405</v>
+        <v>23.33210368851404</v>
       </c>
       <c r="H22" t="n">
         <v>16.68333970209275</v>
@@ -2265,7 +2265,7 @@
         <v>20.79356603310839</v>
       </c>
       <c r="L22" t="n">
-        <v>38.36911567138156</v>
+        <v>38.36911567138155</v>
       </c>
       <c r="M22" t="n">
         <v>26.38430591996613</v>
@@ -2274,7 +2274,7 @@
         <v>18.38352002139453</v>
       </c>
       <c r="O22" t="n">
-        <v>34.24316350670621</v>
+        <v>34.24316350670622</v>
       </c>
       <c r="P22" t="n">
         <v>7.478916526677688</v>
@@ -2286,7 +2286,7 @@
         <v>11.66172242661076</v>
       </c>
       <c r="S22" t="n">
-        <v>2.619338751041063</v>
+        <v>2.619338751041062</v>
       </c>
       <c r="T22" t="n">
         <v>1.145356792633396</v>
@@ -2304,10 +2304,10 @@
         <v>1.850345698884857</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1130643883531283</v>
+        <v>0.1130643883531285</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.009064036071242919</v>
+        <v>0.009064036071242922</v>
       </c>
       <c r="AA22" t="n">
         <v>0.3869697908252097</v>
@@ -2336,7 +2336,7 @@
         <v>8.673921490275637</v>
       </c>
       <c r="H23" t="n">
-        <v>4.930246214788024</v>
+        <v>4.930246214788022</v>
       </c>
       <c r="I23" t="n">
         <v>13.14333707904808</v>
@@ -2345,19 +2345,19 @@
         <v>-1.617290845664424</v>
       </c>
       <c r="K23" t="n">
-        <v>-2.486497947400302</v>
+        <v>-2.4864979474003</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2212377608698262</v>
+        <v>0.2212377608698297</v>
       </c>
       <c r="M23" t="n">
-        <v>-8.137668181709305</v>
+        <v>-8.137668181709302</v>
       </c>
       <c r="N23" t="n">
-        <v>-7.210273936342839</v>
+        <v>-7.210273936342841</v>
       </c>
       <c r="O23" t="n">
-        <v>-8.116190092301</v>
+        <v>-8.116190092300997</v>
       </c>
       <c r="P23" t="n">
         <v>1.45468254575335</v>
@@ -2366,7 +2366,7 @@
         <v>0.5135835517576779</v>
       </c>
       <c r="R23" t="n">
-        <v>2.467322220788226</v>
+        <v>2.467322220788225</v>
       </c>
       <c r="S23" t="n">
         <v>2.440093048382066</v>
@@ -2387,10 +2387,10 @@
         <v>2.876006290522982</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4063753128292754</v>
+        <v>0.4063753128292751</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.003581698657149544</v>
+        <v>0.003581698657149539</v>
       </c>
       <c r="AA23" t="n">
         <v>1.044627847681102</v>
@@ -2413,7 +2413,7 @@
         <v>0.967550997259274</v>
       </c>
       <c r="F24" t="n">
-        <v>3.482045609836439</v>
+        <v>3.482045609836437</v>
       </c>
       <c r="G24" t="n">
         <v>8.722746994685625</v>
@@ -2440,7 +2440,7 @@
         <v>3.28777636006215</v>
       </c>
       <c r="O24" t="n">
-        <v>9.629786554562177</v>
+        <v>9.629786554562179</v>
       </c>
       <c r="P24" t="n">
         <v>4.825822714837509</v>
@@ -2458,7 +2458,7 @@
         <v>1.622996985508763</v>
       </c>
       <c r="U24" t="n">
-        <v>5.280680516736691</v>
+        <v>5.280680516736692</v>
       </c>
       <c r="V24" t="n">
         <v>1.766965728585692</v>
@@ -2473,7 +2473,7 @@
         <v>0.3959184259794736</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.008851543923467771</v>
+        <v>0.008851543923467776</v>
       </c>
       <c r="AA24" t="n">
         <v>1.028748149541026</v>
@@ -2496,19 +2496,19 @@
         <v>-4.744534157995024</v>
       </c>
       <c r="F25" t="n">
-        <v>-8.106591656702514</v>
+        <v>-8.106591656702511</v>
       </c>
       <c r="G25" t="n">
         <v>-1.963140626550485</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.833088428592264</v>
+        <v>-1.83308842859226</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.733670346138041</v>
+        <v>-1.733670346138037</v>
       </c>
       <c r="J25" t="n">
-        <v>9.429577430563659</v>
+        <v>9.429577430563658</v>
       </c>
       <c r="K25" t="n">
         <v>5.90268481590809</v>
@@ -2523,7 +2523,7 @@
         <v>10.87304553045574</v>
       </c>
       <c r="O25" t="n">
-        <v>22.29428789028191</v>
+        <v>22.2942878902819</v>
       </c>
       <c r="P25" t="n">
         <v>8.108002647066305</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.840896037852821</v>
+        <v>7.84089603785282</v>
       </c>
       <c r="E26" t="n">
         <v>5.075522623368766</v>
@@ -2582,10 +2582,10 @@
         <v>11.16604959291559</v>
       </c>
       <c r="G26" t="n">
-        <v>6.656361097065326</v>
+        <v>6.656361097065327</v>
       </c>
       <c r="H26" t="n">
-        <v>3.879834493745467</v>
+        <v>3.879834493745466</v>
       </c>
       <c r="I26" t="n">
         <v>10.10348551833534</v>
@@ -2597,10 +2597,10 @@
         <v>0.8979696641153811</v>
       </c>
       <c r="L26" t="n">
-        <v>5.473911956676121</v>
+        <v>5.473911956676126</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.4798552834958301</v>
+        <v>-0.4798552834958318</v>
       </c>
       <c r="N26" t="n">
         <v>-1.533787838456782</v>
@@ -2609,7 +2609,7 @@
         <v>1.262914956272898</v>
       </c>
       <c r="P26" t="n">
-        <v>3.264439819488711</v>
+        <v>3.264439819488712</v>
       </c>
       <c r="Q26" t="n">
         <v>1.696955788276872</v>
@@ -2624,7 +2624,7 @@
         <v>1.411968882939621</v>
       </c>
       <c r="U26" t="n">
-        <v>4.528177573406723</v>
+        <v>4.528177573406722</v>
       </c>
       <c r="V26" t="n">
         <v>1.692428007070329</v>
@@ -2636,10 +2636,10 @@
         <v>3.00754359709696</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.397734335778349</v>
+        <v>0.3977343357783488</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01196196953667034</v>
+        <v>0.01196196953667033</v>
       </c>
       <c r="AA26" t="n">
         <v>1.012576655672594</v>
@@ -2662,13 +2662,13 @@
         <v>19.7544978112391</v>
       </c>
       <c r="F27" t="n">
-        <v>37.53755363102485</v>
+        <v>37.53755363102484</v>
       </c>
       <c r="G27" t="n">
         <v>37.29454922274791</v>
       </c>
       <c r="H27" t="n">
-        <v>25.94181954685053</v>
+        <v>25.94181954685052</v>
       </c>
       <c r="I27" t="n">
         <v>48.07788688477206</v>
@@ -2686,13 +2686,13 @@
         <v>4.187792475504914</v>
       </c>
       <c r="N27" t="n">
-        <v>2.184052067285223</v>
+        <v>2.184052067285221</v>
       </c>
       <c r="O27" t="n">
-        <v>6.879539904837342</v>
+        <v>6.879539904837349</v>
       </c>
       <c r="P27" t="n">
-        <v>0.994263732985698</v>
+        <v>0.9942637329856963</v>
       </c>
       <c r="Q27" t="n">
         <v>-0.07250718928953681</v>
@@ -2701,7 +2701,7 @@
         <v>2.910949902780996</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1939666530513491</v>
+        <v>0.1939666530513486</v>
       </c>
       <c r="T27" t="n">
         <v>-0.2576741743549136</v>
@@ -2722,7 +2722,7 @@
         <v>-0.02372460704046864</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.01786701819316427</v>
+        <v>-0.01786701819316428</v>
       </c>
       <c r="AA27" t="n">
         <v>0.1011155729579157</v>
@@ -2742,7 +2742,7 @@
         <v>1.275638368376613</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6427366437399673</v>
+        <v>0.6427366437399669</v>
       </c>
       <c r="F28" t="n">
         <v>1.889766487356276</v>
@@ -2751,7 +2751,7 @@
         <v>10.7112277340215</v>
       </c>
       <c r="H28" t="n">
-        <v>7.107526003840264</v>
+        <v>7.107526003840265</v>
       </c>
       <c r="I28" t="n">
         <v>14.14270528627352</v>
@@ -2772,10 +2772,10 @@
         <v>10.70562698740962</v>
       </c>
       <c r="O28" t="n">
-        <v>21.88704040880266</v>
+        <v>21.88704040880267</v>
       </c>
       <c r="P28" t="n">
-        <v>6.76285156646274</v>
+        <v>6.762851566462739</v>
       </c>
       <c r="Q28" t="n">
         <v>3.860447850483561</v>
@@ -2802,10 +2802,10 @@
         <v>2.981668673976015</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3335723480221386</v>
+        <v>0.3335723480221387</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01368314297451887</v>
+        <v>0.01368314297451888</v>
       </c>
       <c r="AA28" t="n">
         <v>0.8827886385038797</v>
@@ -2834,19 +2834,19 @@
         <v>13.33620758575526</v>
       </c>
       <c r="H29" t="n">
-        <v>8.071036029950587</v>
+        <v>8.071036029950584</v>
       </c>
       <c r="I29" t="n">
         <v>19.29401369056761</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.563721263561732</v>
+        <v>-2.563721263561728</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.27234153286493</v>
+        <v>-3.272341532864928</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.8079239332450818</v>
+        <v>-0.8079239332450783</v>
       </c>
       <c r="M29" t="n">
         <v>-13.14073679130977</v>
@@ -2855,13 +2855,13 @@
         <v>-10.86042153831178</v>
       </c>
       <c r="O29" t="n">
-        <v>-14.27973518511343</v>
+        <v>-14.27973518511342</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.1450116906299534</v>
+        <v>-0.1450116906299543</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.5554266981467051</v>
+        <v>-0.5554266981467046</v>
       </c>
       <c r="R29" t="n">
         <v>0.3589219287601271</v>
@@ -2885,10 +2885,10 @@
         <v>2.462271218710295</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.3590361665564428</v>
+        <v>0.3590361665564424</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.004517011886599814</v>
+        <v>-0.004517011886599824</v>
       </c>
       <c r="AA29" t="n">
         <v>0.9466964920353247</v>
@@ -2929,7 +2929,7 @@
         <v>6.13163799322832</v>
       </c>
       <c r="L30" t="n">
-        <v>14.26792590950505</v>
+        <v>14.26792590950506</v>
       </c>
       <c r="M30" t="n">
         <v>4.359128011176544</v>
@@ -2968,13 +2968,13 @@
         <v>2.44061615248322</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2891866227568566</v>
+        <v>0.2891866227568565</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.00677974196185152</v>
+        <v>0.006779741961851516</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.776722903302494</v>
+        <v>0.7767229033024942</v>
       </c>
     </row>
     <row r="31">
@@ -3024,7 +3024,7 @@
         <v>28.8242770454679</v>
       </c>
       <c r="P31" t="n">
-        <v>7.307164830360137</v>
+        <v>7.307164830360138</v>
       </c>
       <c r="Q31" t="n">
         <v>4.208277222755624</v>
@@ -3051,7 +3051,7 @@
         <v>2.419805057634919</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2181995677485953</v>
+        <v>0.2181995677485954</v>
       </c>
       <c r="Z31" t="n">
         <v>0.01999161189242341</v>
@@ -3077,7 +3077,7 @@
         <v>1.812403962323333</v>
       </c>
       <c r="F32" t="n">
-        <v>2.761298493471163</v>
+        <v>2.761298493471164</v>
       </c>
       <c r="G32" t="n">
         <v>16.02509189076511</v>
@@ -3095,7 +3095,7 @@
         <v>18.98078559252196</v>
       </c>
       <c r="L32" t="n">
-        <v>35.17476486380508</v>
+        <v>35.17476486380507</v>
       </c>
       <c r="M32" t="n">
         <v>28.73263024095359</v>
@@ -3122,22 +3122,22 @@
         <v>1.675027792475167</v>
       </c>
       <c r="U32" t="n">
-        <v>6.057641487873055</v>
+        <v>6.057641487873056</v>
       </c>
       <c r="V32" t="n">
         <v>1.287015937979191</v>
       </c>
       <c r="W32" t="n">
-        <v>0.4824701809130113</v>
+        <v>0.4824701809130114</v>
       </c>
       <c r="X32" t="n">
-        <v>2.546278535936253</v>
+        <v>2.546278535936252</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2163836579497199</v>
+        <v>0.2163836579497201</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01688118627922085</v>
+        <v>0.01688118627922086</v>
       </c>
       <c r="AA32" t="n">
         <v>0.6148836941252719</v>
@@ -3199,7 +3199,7 @@
         <v>8.816878351148148</v>
       </c>
       <c r="S33" t="n">
-        <v>2.406683491262134</v>
+        <v>2.406683491262133</v>
       </c>
       <c r="T33" t="n">
         <v>1.046426849065603</v>
@@ -3217,10 +3217,10 @@
         <v>2.002694100307136</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.1754104663104633</v>
+        <v>0.1754104663104634</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.004232437020191817</v>
+        <v>0.004232437020191819</v>
       </c>
       <c r="AA33" t="n">
         <v>0.5329293018623558</v>
@@ -3243,37 +3243,37 @@
         <v>15.27105279493108</v>
       </c>
       <c r="F34" t="n">
-        <v>30.1461202452397</v>
+        <v>30.14612024523969</v>
       </c>
       <c r="G34" t="n">
         <v>27.31839897052468</v>
       </c>
       <c r="H34" t="n">
-        <v>18.45638394271805</v>
+        <v>18.45638394271804</v>
       </c>
       <c r="I34" t="n">
-        <v>36.11737504289285</v>
+        <v>36.11737504289284</v>
       </c>
       <c r="J34" t="n">
-        <v>11.74502201483468</v>
+        <v>11.74502201483469</v>
       </c>
       <c r="K34" t="n">
         <v>7.182855033024005</v>
       </c>
       <c r="L34" t="n">
-        <v>16.66444098926406</v>
+        <v>16.66444098926407</v>
       </c>
       <c r="M34" t="n">
         <v>-3.305935107780471</v>
       </c>
       <c r="N34" t="n">
-        <v>-3.467502470782572</v>
+        <v>-3.467502470782573</v>
       </c>
       <c r="O34" t="n">
-        <v>-2.261023237304745</v>
+        <v>-2.261023237304737</v>
       </c>
       <c r="P34" t="n">
-        <v>0.4882618101228067</v>
+        <v>0.4882618101228058</v>
       </c>
       <c r="Q34" t="n">
         <v>-0.2964877500915288</v>
@@ -3282,7 +3282,7 @@
         <v>1.806284227629219</v>
       </c>
       <c r="S34" t="n">
-        <v>0.870969852648658</v>
+        <v>0.8709698526486576</v>
       </c>
       <c r="T34" t="n">
         <v>0.1798130661526314</v>
@@ -3300,10 +3300,10 @@
         <v>1.329260300861589</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1408032293047827</v>
+        <v>0.1408032293047826</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.01296635095411688</v>
+        <v>-0.0129663509541169</v>
       </c>
       <c r="AA34" t="n">
         <v>0.4669518729823009</v>
@@ -3323,7 +3323,7 @@
         <v>7.550371263734144</v>
       </c>
       <c r="E35" t="n">
-        <v>4.739063815081428</v>
+        <v>4.739063815081427</v>
       </c>
       <c r="F35" t="n">
         <v>10.72752973590749</v>
@@ -3332,7 +3332,7 @@
         <v>12.70437537502681</v>
       </c>
       <c r="H35" t="n">
-        <v>7.994048124152914</v>
+        <v>7.994048124152912</v>
       </c>
       <c r="I35" t="n">
         <v>17.59437171824017</v>
@@ -3341,7 +3341,7 @@
         <v>6.66146948716551</v>
       </c>
       <c r="K35" t="n">
-        <v>3.557294151851151</v>
+        <v>3.55729415185115</v>
       </c>
       <c r="L35" t="n">
         <v>10.2757393741111</v>
@@ -3353,13 +3353,13 @@
         <v>-0.2198842586789347</v>
       </c>
       <c r="O35" t="n">
-        <v>3.634947036797183</v>
+        <v>3.634947036797186</v>
       </c>
       <c r="P35" t="n">
-        <v>3.2675242081853</v>
+        <v>3.267524208185299</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.612808776487615</v>
+        <v>1.612808776487614</v>
       </c>
       <c r="R35" t="n">
         <v>5.235590492251014</v>
@@ -3368,7 +3368,7 @@
         <v>2.645363697881411</v>
       </c>
       <c r="T35" t="n">
-        <v>1.239155065836174</v>
+        <v>1.239155065836173</v>
       </c>
       <c r="U35" t="n">
         <v>4.315293361880794</v>
@@ -3386,7 +3386,7 @@
         <v>0.3474417684979658</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.002667949461838971</v>
+        <v>0.002667949461838973</v>
       </c>
       <c r="AA35" t="n">
         <v>0.9227796795824253</v>
@@ -3409,16 +3409,16 @@
         <v>-2.213305933887182</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.9045521459132</v>
+        <v>-3.904552145913199</v>
       </c>
       <c r="G36" t="n">
         <v>5.36828392340344</v>
       </c>
       <c r="H36" t="n">
-        <v>3.561969081420212</v>
+        <v>3.561969081420214</v>
       </c>
       <c r="I36" t="n">
-        <v>7.116016444934379</v>
+        <v>7.116016444934381</v>
       </c>
       <c r="J36" t="n">
         <v>16.61954072490875</v>
@@ -3466,10 +3466,10 @@
         <v>3.396247717167475</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3797739830862961</v>
+        <v>0.3797739830862962</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.02369696960038879</v>
+        <v>0.0236969696003888</v>
       </c>
       <c r="AA36" t="n">
         <v>0.9726828798368339</v>
@@ -3498,7 +3498,7 @@
         <v>12.67996262282182</v>
       </c>
       <c r="H37" t="n">
-        <v>7.830158523423007</v>
+        <v>7.830158523423004</v>
       </c>
       <c r="I37" t="n">
         <v>18.00618658949409</v>
@@ -3510,19 +3510,19 @@
         <v>0.1364062633246395</v>
       </c>
       <c r="L37" t="n">
-        <v>4.676076228858649</v>
+        <v>4.676076228858653</v>
       </c>
       <c r="M37" t="n">
         <v>-5.796594081465386</v>
       </c>
       <c r="N37" t="n">
-        <v>-5.468909406881428</v>
+        <v>-5.46890940688143</v>
       </c>
       <c r="O37" t="n">
-        <v>-5.238041286634406</v>
+        <v>-5.238041286634402</v>
       </c>
       <c r="P37" t="n">
-        <v>1.58195412364322</v>
+        <v>1.581954123643219</v>
       </c>
       <c r="Q37" t="n">
         <v>0.5485419390108617</v>
@@ -3549,10 +3549,10 @@
         <v>2.592120582526725</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.3526702119228667</v>
+        <v>0.3526702119228665</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.302682867985761e-05</v>
+        <v>3.30268286798524e-05</v>
       </c>
       <c r="AA37" t="n">
         <v>0.9307195286524634</v>
@@ -3599,10 +3599,10 @@
         <v>7.006622079046008</v>
       </c>
       <c r="N38" t="n">
-        <v>4.235322123020606</v>
+        <v>4.235322123020604</v>
       </c>
       <c r="O38" t="n">
-        <v>10.33364176703061</v>
+        <v>10.33364176703062</v>
       </c>
       <c r="P38" t="n">
         <v>2.508082121210226</v>
@@ -3611,7 +3611,7 @@
         <v>1.001246473042475</v>
       </c>
       <c r="R38" t="n">
-        <v>4.702178839091722</v>
+        <v>4.702178839091721</v>
       </c>
       <c r="S38" t="n">
         <v>1.088548185947309</v>
@@ -3629,13 +3629,13 @@
         <v>0.06352950403346469</v>
       </c>
       <c r="X38" t="n">
-        <v>1.178599842196858</v>
+        <v>1.178599842196859</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.07618212893009746</v>
+        <v>0.07618212893009743</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.004304519738824663</v>
+        <v>-0.004304519738824676</v>
       </c>
       <c r="AA38" t="n">
         <v>0.3049181333195085</v>
@@ -3670,25 +3670,25 @@
         <v>33.00654999208604</v>
       </c>
       <c r="J39" t="n">
-        <v>8.256815333102791</v>
+        <v>8.256815333102793</v>
       </c>
       <c r="K39" t="n">
-        <v>4.584231006972951</v>
+        <v>4.58423100697295</v>
       </c>
       <c r="L39" t="n">
-        <v>12.44092848757267</v>
+        <v>12.44092848757268</v>
       </c>
       <c r="M39" t="n">
         <v>-5.960679396393477</v>
       </c>
       <c r="N39" t="n">
-        <v>-5.493840966699691</v>
+        <v>-5.493840966699693</v>
       </c>
       <c r="O39" t="n">
-        <v>-5.476583193066212</v>
+        <v>-5.476583193066205</v>
       </c>
       <c r="P39" t="n">
-        <v>0.2781987727707484</v>
+        <v>0.2781987727707476</v>
       </c>
       <c r="Q39" t="n">
         <v>-0.4108497367063397</v>
@@ -3697,7 +3697,7 @@
         <v>1.412537067912019</v>
       </c>
       <c r="S39" t="n">
-        <v>1.0941760490879</v>
+        <v>1.094176049087899</v>
       </c>
       <c r="T39" t="n">
         <v>0.3188959620882463</v>
@@ -3715,10 +3715,10 @@
         <v>1.611458066100298</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1967833526285417</v>
+        <v>0.1967833526285415</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.01324791128988832</v>
+        <v>-0.01324791128988833</v>
       </c>
       <c r="AA39" t="n">
         <v>0.5969344206365859</v>
@@ -3741,31 +3741,31 @@
         <v>-2.467503012275542</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.32491865922651</v>
+        <v>-3.324918659226508</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.306895663617047</v>
+        <v>-1.306895663617045</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.592210922064682</v>
+        <v>-1.59221092206468</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.4458432450645162</v>
+        <v>-0.4458432450645127</v>
       </c>
       <c r="J40" t="n">
-        <v>4.852573710346924</v>
+        <v>4.852573710346922</v>
       </c>
       <c r="K40" t="n">
         <v>2.493937019718522</v>
       </c>
       <c r="L40" t="n">
-        <v>7.763561311203373</v>
+        <v>7.763561311203375</v>
       </c>
       <c r="M40" t="n">
         <v>9.212611747336002</v>
       </c>
       <c r="N40" t="n">
-        <v>5.481533399025387</v>
+        <v>5.481533399025388</v>
       </c>
       <c r="O40" t="n">
         <v>13.25259399180288</v>
@@ -3798,10 +3798,10 @@
         <v>3.833325797964785</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4946876507413646</v>
+        <v>0.4946876507413644</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.02432915845992793</v>
+        <v>0.02432915845992794</v>
       </c>
       <c r="AA40" t="n">
         <v>1.224513595589795</v>
@@ -3824,16 +3824,16 @@
         <v>-4.153878271319324</v>
       </c>
       <c r="F41" t="n">
-        <v>-8.247705286381096</v>
+        <v>-8.247705286381093</v>
       </c>
       <c r="G41" t="n">
         <v>-1.335975317491485</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.793122055514818</v>
+        <v>-0.7931220555148144</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.662696856043976</v>
+        <v>-1.662696856043972</v>
       </c>
       <c r="J41" t="n">
         <v>17.35242121192475</v>
@@ -3848,13 +3848,13 @@
         <v>26.86931164400686</v>
       </c>
       <c r="N41" t="n">
-        <v>18.57587012425891</v>
+        <v>18.57587012425892</v>
       </c>
       <c r="O41" t="n">
-        <v>34.88895289461727</v>
+        <v>34.88895289461726</v>
       </c>
       <c r="P41" t="n">
-        <v>10.12782295815372</v>
+        <v>10.12782295815373</v>
       </c>
       <c r="Q41" t="n">
         <v>6.157275549015582</v>
@@ -3863,7 +3863,7 @@
         <v>14.48221124779775</v>
       </c>
       <c r="S41" t="n">
-        <v>4.857375746471328</v>
+        <v>4.857375746471329</v>
       </c>
       <c r="T41" t="n">
         <v>2.530087873823135</v>
@@ -3881,10 +3881,10 @@
         <v>3.812514703116484</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4237005957331033</v>
+        <v>0.4237005957331034</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.03754102839049983</v>
+        <v>0.03754102839049984</v>
       </c>
       <c r="AA41" t="n">
         <v>1.046502892544142</v>
@@ -3937,7 +3937,7 @@
         <v>12.94421575398671</v>
       </c>
       <c r="P42" t="n">
-        <v>3.814921860779284</v>
+        <v>3.814921860779283</v>
       </c>
       <c r="Q42" t="n">
         <v>1.87649113697042</v>
@@ -3967,7 +3967,7 @@
         <v>0.1817764209440393</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.0003176016950878543</v>
+        <v>-0.000317601695087856</v>
       </c>
       <c r="AA42" t="n">
         <v>0.548906265245217</v>
@@ -3990,13 +3990,13 @@
         <v>8.064485967574111</v>
       </c>
       <c r="F43" t="n">
-        <v>16.09367185010569</v>
+        <v>16.0936718501057</v>
       </c>
       <c r="G43" t="n">
         <v>13.30712793188082</v>
       </c>
       <c r="H43" t="n">
-        <v>8.870124896500453</v>
+        <v>8.870124896500451</v>
       </c>
       <c r="I43" t="n">
         <v>18.07716007958815</v>
@@ -4020,7 +4020,7 @@
         <v>7.356623717700955</v>
       </c>
       <c r="P43" t="n">
-        <v>3.601774434730638</v>
+        <v>3.601774434730639</v>
       </c>
       <c r="Q43" t="n">
         <v>1.846276162144867</v>
@@ -4047,10 +4047,10 @@
         <v>2.441460123861994</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.2880491115481815</v>
+        <v>0.2880491115481814</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.008694858043972079</v>
+        <v>0.008694858043972074</v>
       </c>
       <c r="AA43" t="n">
         <v>0.768685788989671</v>
@@ -4079,10 +4079,10 @@
         <v>4.031381245331565</v>
       </c>
       <c r="H44" t="n">
-        <v>2.916324467635143</v>
+        <v>2.916324467635146</v>
       </c>
       <c r="I44" t="n">
-        <v>4.952177114041248</v>
+        <v>4.952177114041252</v>
       </c>
       <c r="J44" t="n">
         <v>21.12536113483172</v>
@@ -4100,7 +4100,7 @@
         <v>20.03226068726462</v>
       </c>
       <c r="O44" t="n">
-        <v>37.42969055018899</v>
+        <v>37.42969055018898</v>
       </c>
       <c r="P44" t="n">
         <v>10.17230307658141</v>
@@ -4130,10 +4130,10 @@
         <v>3.526941052362679</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.372270517244045</v>
+        <v>0.3722705172440451</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.03016212439778902</v>
+        <v>0.03016212439778903</v>
       </c>
       <c r="AA44" t="n">
         <v>0.9486688021411495</v>
@@ -4162,10 +4162,10 @@
         <v>29.28246695765555</v>
       </c>
       <c r="H45" t="n">
-        <v>20.14199492958057</v>
+        <v>20.14199492958056</v>
       </c>
       <c r="I45" t="n">
-        <v>38.35218786388004</v>
+        <v>38.35218786388003</v>
       </c>
       <c r="J45" t="n">
         <v>15.16204538627281</v>
@@ -4174,16 +4174,16 @@
         <v>9.769338966738118</v>
       </c>
       <c r="L45" t="n">
-        <v>20.77229050780673</v>
+        <v>20.77229050780674</v>
       </c>
       <c r="M45" t="n">
         <v>-0.4943557249829169</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.298676991637597</v>
+        <v>-1.298676991637599</v>
       </c>
       <c r="O45" t="n">
-        <v>1.123242293504155</v>
+        <v>1.123242293504159</v>
       </c>
       <c r="P45" t="n">
         <v>0.7397205772059579</v>
@@ -4210,13 +4210,13 @@
         <v>0.01818005931550115</v>
       </c>
       <c r="X45" t="n">
-        <v>1.047906507001654</v>
+        <v>1.047906507001655</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.08368559477234863</v>
+        <v>0.08368559477234852</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.0107696745362249</v>
+        <v>-0.01076967453622491</v>
       </c>
       <c r="AA45" t="n">
         <v>0.3289322110151929</v>
@@ -4239,13 +4239,13 @@
         <v>2.606597890708173</v>
       </c>
       <c r="F46" t="n">
-        <v>3.925401096880055</v>
+        <v>3.925401096880059</v>
       </c>
       <c r="G46" t="n">
         <v>9.296419897665192</v>
       </c>
       <c r="H46" t="n">
-        <v>6.933191055145245</v>
+        <v>6.933191055145246</v>
       </c>
       <c r="I46" t="n">
         <v>11.58564208690877</v>
@@ -4266,10 +4266,10 @@
         <v>18.83591253089636</v>
       </c>
       <c r="O46" t="n">
-        <v>34.98782213828034</v>
+        <v>34.98782213828032</v>
       </c>
       <c r="P46" t="n">
-        <v>8.906859066743442</v>
+        <v>8.906859066743444</v>
       </c>
       <c r="Q46" t="n">
         <v>5.277287472660007</v>
@@ -4278,13 +4278,13 @@
         <v>13.13578000720412</v>
       </c>
       <c r="S46" t="n">
-        <v>3.744511090655848</v>
+        <v>3.744511090655849</v>
       </c>
       <c r="T46" t="n">
         <v>1.854587793812182</v>
       </c>
       <c r="U46" t="n">
-        <v>6.266462413901449</v>
+        <v>6.266462413901448</v>
       </c>
       <c r="V46" t="n">
         <v>1.472658930771824</v>
@@ -4296,7 +4296,7 @@
         <v>2.833540129447606</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.2655387140214279</v>
+        <v>0.265538714021428</v>
       </c>
       <c r="Z46" t="n">
         <v>0.02809032243617277</v>
@@ -4328,7 +4328,7 @@
         <v>25.95241663857836</v>
       </c>
       <c r="H47" t="n">
-        <v>18.60982819548284</v>
+        <v>18.60982819548285</v>
       </c>
       <c r="I47" t="n">
         <v>32.73668210102026</v>
@@ -4340,7 +4340,7 @@
         <v>19.97130217063294</v>
       </c>
       <c r="L47" t="n">
-        <v>36.9929650278205</v>
+        <v>36.99296502782049</v>
       </c>
       <c r="M47" t="n">
         <v>21.85174259291931</v>
@@ -4361,7 +4361,7 @@
         <v>9.629897938582493</v>
       </c>
       <c r="S47" t="n">
-        <v>1.962732635143512</v>
+        <v>1.962732635143511</v>
       </c>
       <c r="T47" t="n">
         <v>0.7750072414279398</v>
@@ -4370,7 +4370,7 @@
         <v>3.889603253650117</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5550568646772085</v>
+        <v>0.5550568646772084</v>
       </c>
       <c r="W47" t="n">
         <v>0.1495199508178526</v>
@@ -4379,10 +4379,10 @@
         <v>1.439142541208492</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.06231270845427028</v>
+        <v>0.06231270845427039</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.006710673773855239</v>
+        <v>0.006710673773855235</v>
       </c>
       <c r="AA47" t="n">
         <v>0.2649270922409628</v>
@@ -4417,7 +4417,7 @@
         <v>25.9798611507469</v>
       </c>
       <c r="J48" t="n">
-        <v>9.132062440706328</v>
+        <v>9.13206244070633</v>
       </c>
       <c r="K48" t="n">
         <v>5.357934500100635</v>
@@ -4429,13 +4429,13 @@
         <v>-0.8007756926084664</v>
       </c>
       <c r="N48" t="n">
-        <v>-1.701206381502898</v>
+        <v>-1.701206381502899</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8556674747936519</v>
+        <v>0.8556674747936555</v>
       </c>
       <c r="P48" t="n">
-        <v>1.919288738885147</v>
+        <v>1.919288738885146</v>
       </c>
       <c r="Q48" t="n">
         <v>0.6978623128788564</v>
@@ -4462,10 +4462,10 @@
         <v>2.026037109291759</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.2429849876926991</v>
+        <v>0.242984987692699</v>
       </c>
       <c r="Z48" t="n">
-        <v>-0.003234084664018399</v>
+        <v>-0.003234084664018406</v>
       </c>
       <c r="AA48" t="n">
         <v>0.68682866196954</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-9.608382583806318</v>
+        <v>-9.608382583806321</v>
       </c>
       <c r="E49" t="n">
         <v>-7.154486070292701</v>
@@ -4494,10 +4494,10 @@
         <v>-3.927208613681364</v>
       </c>
       <c r="H49" t="n">
-        <v>-3.51869941545478</v>
+        <v>-3.518699415454778</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.968483167125235</v>
+        <v>-3.968483167125232</v>
       </c>
       <c r="J49" t="n">
         <v>6.012554059125534</v>
@@ -4518,7 +4518,7 @@
         <v>18.910022359473</v>
       </c>
       <c r="P49" t="n">
-        <v>7.856543879983154</v>
+        <v>7.856543879983153</v>
       </c>
       <c r="Q49" t="n">
         <v>4.705477539585951</v>
@@ -4548,7 +4548,7 @@
         <v>0.5454393306402227</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02668252075731561</v>
+        <v>0.02668252075731563</v>
       </c>
       <c r="AA49" t="n">
         <v>1.346556294174042</v>
@@ -4565,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>10.40035856299424</v>
+        <v>10.40035856299423</v>
       </c>
       <c r="E50" t="n">
-        <v>6.558359840703406</v>
+        <v>6.558359840703405</v>
       </c>
       <c r="F50" t="n">
         <v>14.7836199869827</v>
@@ -4577,7 +4577,7 @@
         <v>14.04127805309868</v>
       </c>
       <c r="H50" t="n">
-        <v>8.639692737937985</v>
+        <v>8.639692737937981</v>
       </c>
       <c r="I50" t="n">
         <v>19.7582110491333</v>
@@ -4589,19 +4589,19 @@
         <v>0.1606864479985255</v>
       </c>
       <c r="L50" t="n">
-        <v>4.907402195156084</v>
+        <v>4.907402195156088</v>
       </c>
       <c r="M50" t="n">
         <v>-6.110264269834481</v>
       </c>
       <c r="N50" t="n">
-        <v>-5.753883373337137</v>
+        <v>-5.753883373337139</v>
       </c>
       <c r="O50" t="n">
-        <v>-5.575452436729275</v>
+        <v>-5.575452436729272</v>
       </c>
       <c r="P50" t="n">
-        <v>1.499162664181032</v>
+        <v>1.499162664181031</v>
       </c>
       <c r="Q50" t="n">
         <v>0.4691383396492346</v>
@@ -4610,7 +4610,7 @@
         <v>2.758968308505657</v>
       </c>
       <c r="S50" t="n">
-        <v>2.207040704903379</v>
+        <v>2.207040704903378</v>
       </c>
       <c r="T50" t="n">
         <v>0.9943960420991989</v>
@@ -4628,10 +4628,10 @@
         <v>2.590432639769177</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.354945234340217</v>
+        <v>0.3549452343402169</v>
       </c>
       <c r="Z50" t="n">
-        <v>-0.003797205335561262</v>
+        <v>-0.003797205335561266</v>
       </c>
       <c r="AA50" t="n">
         <v>0.9467937572781098</v>
@@ -4660,13 +4660,13 @@
         <v>-13.2761935568456</v>
       </c>
       <c r="H51" t="n">
-        <v>-9.964168646509814</v>
+        <v>-9.96416864650981</v>
       </c>
       <c r="I51" t="n">
         <v>-15.85802151891038</v>
       </c>
       <c r="J51" t="n">
-        <v>3.257227864409643</v>
+        <v>3.257227864409641</v>
       </c>
       <c r="K51" t="n">
         <v>1.467000164596723</v>
@@ -4678,10 +4678,10 @@
         <v>16.56400467792392</v>
       </c>
       <c r="N51" t="n">
-        <v>10.75549010704614</v>
+        <v>10.75549010704615</v>
       </c>
       <c r="O51" t="n">
-        <v>22.36412422166628</v>
+        <v>22.36412422166627</v>
       </c>
       <c r="P51" t="n">
         <v>9.370362268207682</v>
@@ -4693,7 +4693,7 @@
         <v>12.95827314492883</v>
       </c>
       <c r="S51" t="n">
-        <v>5.755123605748016</v>
+        <v>5.755123605748018</v>
       </c>
       <c r="T51" t="n">
         <v>3.099911826032728</v>
@@ -4711,10 +4711,10 @@
         <v>4.942993706828868</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.6453460666107887</v>
+        <v>0.6453460666107886</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.04024501921165522</v>
+        <v>0.04024501921165523</v>
       </c>
       <c r="AA51" t="n">
         <v>1.550358854535635</v>
@@ -4734,7 +4734,7 @@
         <v>-3.849577933306224</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.538120287406488</v>
+        <v>-2.538120287406487</v>
       </c>
       <c r="F52" t="n">
         <v>-5.496831268393361</v>
@@ -4743,10 +4743,10 @@
         <v>7.35676466273931</v>
       </c>
       <c r="H52" t="n">
-        <v>5.411469669012637</v>
+        <v>5.411469669012639</v>
       </c>
       <c r="I52" t="n">
-        <v>8.939014394667655</v>
+        <v>8.939014394667659</v>
       </c>
       <c r="J52" t="n">
         <v>24.68475112685738</v>
@@ -4773,7 +4773,7 @@
         <v>6.187490523841134</v>
       </c>
       <c r="R52" t="n">
-        <v>15.14207922723245</v>
+        <v>15.14207922723244</v>
       </c>
       <c r="S52" t="n">
         <v>4.398655669793538</v>
@@ -4794,13 +4794,13 @@
         <v>3.243899315745197</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.3174279051289612</v>
+        <v>0.3174279051289614</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.02852856865143989</v>
+        <v>0.02852856865143991</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.8267233687996878</v>
+        <v>0.8267233687996877</v>
       </c>
     </row>
     <row r="53">
@@ -4844,10 +4844,10 @@
         <v>-5.490174113839839</v>
       </c>
       <c r="N53" t="n">
-        <v>-5.066380017016128</v>
+        <v>-5.06638001701613</v>
       </c>
       <c r="O53" t="n">
-        <v>-4.970466467923902</v>
+        <v>-4.970466467923899</v>
       </c>
       <c r="P53" t="n">
         <v>0.4023859619640309</v>
@@ -4859,7 +4859,7 @@
         <v>1.489112871911846</v>
       </c>
       <c r="S53" t="n">
-        <v>1.101560659367483</v>
+        <v>1.101560659367484</v>
       </c>
       <c r="T53" t="n">
         <v>0.339134514788946</v>
@@ -4877,10 +4877,10 @@
         <v>1.61398998023662</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1933708190025162</v>
+        <v>0.193370819002516</v>
       </c>
       <c r="Z53" t="n">
-        <v>-0.007502563043526639</v>
+        <v>-0.007502563043526653</v>
       </c>
       <c r="AA53" t="n">
         <v>0.5728230776981162</v>
@@ -4897,19 +4897,19 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>4.10811273411007</v>
+        <v>4.108112734110069</v>
       </c>
       <c r="E54" t="n">
         <v>2.207835590973585</v>
       </c>
       <c r="F54" t="n">
-        <v>6.525490225118179</v>
+        <v>6.525490225118175</v>
       </c>
       <c r="G54" t="n">
-        <v>5.372950825072886</v>
+        <v>5.372950825072885</v>
       </c>
       <c r="H54" t="n">
-        <v>2.598990614140439</v>
+        <v>2.598990614140438</v>
       </c>
       <c r="I54" t="n">
         <v>8.744684927167754</v>
@@ -4960,7 +4960,7 @@
         <v>3.28805341957812</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.4559894815194583</v>
+        <v>0.4559894815194581</v>
       </c>
       <c r="Z54" t="n">
         <v>0.007850177036657786</v>
@@ -4980,13 +4980,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>6.116621147340781</v>
+        <v>6.11662114734078</v>
       </c>
       <c r="E55" t="n">
-        <v>3.702317263076258</v>
+        <v>3.702317263076257</v>
       </c>
       <c r="F55" t="n">
-        <v>8.989301353713229</v>
+        <v>8.989301353713227</v>
       </c>
       <c r="G55" t="n">
         <v>8.69833424248063</v>
@@ -5004,7 +5004,7 @@
         <v>0.9343899411262093</v>
       </c>
       <c r="L55" t="n">
-        <v>5.820900906122276</v>
+        <v>5.820900906122279</v>
       </c>
       <c r="M55" t="n">
         <v>-0.9503605660494703</v>
@@ -5013,7 +5013,7 @@
         <v>-1.961248788140345</v>
       </c>
       <c r="O55" t="n">
-        <v>0.7567982311305883</v>
+        <v>0.7567982311305919</v>
       </c>
       <c r="P55" t="n">
         <v>3.140252630295429</v>
@@ -5037,13 +5037,13 @@
         <v>1.701079557701448</v>
       </c>
       <c r="W55" t="n">
-        <v>0.6169238433275872</v>
+        <v>0.6169238433275873</v>
       </c>
       <c r="X55" t="n">
         <v>3.005011682960637</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.4011468694043745</v>
+        <v>0.4011468694043743</v>
       </c>
       <c r="Z55" t="n">
         <v>0.006216621290308658</v>
@@ -5099,7 +5099,7 @@
         <v>27.98074917023072</v>
       </c>
       <c r="P56" t="n">
-        <v>7.100186181704668</v>
+        <v>7.100186181704667</v>
       </c>
       <c r="Q56" t="n">
         <v>4.009768224351555</v>
@@ -5126,7 +5126,7 @@
         <v>2.415585200741049</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.2238871237919711</v>
+        <v>0.2238871237919712</v>
       </c>
       <c r="Z56" t="n">
         <v>0.01041603148182062</v>
@@ -5146,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>3.017426192415289</v>
+        <v>3.017426192415288</v>
       </c>
       <c r="E57" t="n">
         <v>2.270139082420835</v>
       </c>
       <c r="F57" t="n">
-        <v>3.486881239871952</v>
+        <v>3.486881239871954</v>
       </c>
       <c r="G57" t="n">
         <v>15.34443417562668</v>
@@ -5164,7 +5164,7 @@
         <v>19.0765282868136</v>
       </c>
       <c r="J57" t="n">
-        <v>27.29771070098574</v>
+        <v>27.29771070098573</v>
       </c>
       <c r="K57" t="n">
         <v>18.96864550018502</v>
@@ -5197,7 +5197,7 @@
         <v>1.681773976708734</v>
       </c>
       <c r="U57" t="n">
-        <v>6.053578202375519</v>
+        <v>6.05357820237552</v>
       </c>
       <c r="V57" t="n">
         <v>1.284132087768818</v>
@@ -5209,10 +5209,10 @@
         <v>2.547122507315027</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.2152461467410448</v>
+        <v>0.2152461467410449</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.01879630236134141</v>
+        <v>0.01879630236134142</v>
       </c>
       <c r="AA57" t="n">
         <v>0.6068465798124487</v>
@@ -5232,7 +5232,7 @@
         <v>12.12463345350627</v>
       </c>
       <c r="E58" t="n">
-        <v>7.931565200995913</v>
+        <v>7.931565200995912</v>
       </c>
       <c r="F58" t="n">
         <v>16.96036822618507</v>
@@ -5241,25 +5241,25 @@
         <v>11.99930490768338</v>
       </c>
       <c r="H58" t="n">
-        <v>7.425391416165517</v>
+        <v>7.425391416165515</v>
       </c>
       <c r="I58" t="n">
         <v>17.13017435967448</v>
       </c>
       <c r="J58" t="n">
-        <v>1.942099146361237</v>
+        <v>1.942099146361238</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1242661709876955</v>
+        <v>0.1242661709876973</v>
       </c>
       <c r="L58" t="n">
-        <v>4.560413245709931</v>
+        <v>4.560413245709935</v>
       </c>
       <c r="M58" t="n">
         <v>-5.639758987280842</v>
       </c>
       <c r="N58" t="n">
-        <v>-5.326422423653574</v>
+        <v>-5.326422423653575</v>
       </c>
       <c r="O58" t="n">
         <v>-5.069335711586969</v>
@@ -5292,10 +5292,10 @@
         <v>2.592964553905499</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.3515327007141916</v>
+        <v>0.3515327007141913</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.001948142910800416</v>
+        <v>0.001948142910800411</v>
       </c>
       <c r="AA58" t="n">
         <v>0.9226824143396403</v>
@@ -5312,13 +5312,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>5.58317996895671</v>
+        <v>5.583179968956711</v>
       </c>
       <c r="E59" t="n">
         <v>3.96815879623265</v>
       </c>
       <c r="F59" t="n">
-        <v>7.255908601554481</v>
+        <v>7.255908601554482</v>
       </c>
       <c r="G59" t="n">
         <v>11.3139802908755</v>
@@ -5327,7 +5327,7 @@
         <v>7.983602776187803</v>
       </c>
       <c r="I59" t="n">
-        <v>14.6254936476215</v>
+        <v>14.62549364762151</v>
       </c>
       <c r="J59" t="n">
         <v>19.0189503681558</v>
@@ -5345,7 +5345,7 @@
         <v>13.1594264330103</v>
       </c>
       <c r="O59" t="n">
-        <v>25.60871708970644</v>
+        <v>25.60871708970643</v>
       </c>
       <c r="P59" t="n">
         <v>7.09710179300808</v>
@@ -5375,7 +5375,7 @@
         <v>2.702002822873628</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.2741796910723542</v>
+        <v>0.2741796910723543</v>
       </c>
       <c r="Z59" t="n">
         <v>0.01971005155665198</v>
@@ -5407,7 +5407,7 @@
         <v>10.71589463569094</v>
       </c>
       <c r="H60" t="n">
-        <v>6.14454753656049</v>
+        <v>6.144547536560488</v>
       </c>
       <c r="I60" t="n">
         <v>15.77137376850689</v>
@@ -5419,22 +5419,22 @@
         <v>-2.450077670389472</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5682267103159795</v>
+        <v>0.568226710315983</v>
       </c>
       <c r="M60" t="n">
-        <v>-8.608173464262943</v>
+        <v>-8.60817346426294</v>
       </c>
       <c r="N60" t="n">
-        <v>-7.637734886026401</v>
+        <v>-7.637734886026404</v>
       </c>
       <c r="O60" t="n">
-        <v>-8.622306817443306</v>
+        <v>-8.622306817443302</v>
       </c>
       <c r="P60" t="n">
-        <v>1.330495356560069</v>
+        <v>1.330495356560068</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.3944781527152368</v>
+        <v>0.3944781527152372</v>
       </c>
       <c r="R60" t="n">
         <v>2.390746416788398</v>
@@ -5443,7 +5443,7 @@
         <v>2.432708438102482</v>
       </c>
       <c r="T60" t="n">
-        <v>1.14022512226838</v>
+        <v>1.140225122268381</v>
       </c>
       <c r="U60" t="n">
         <v>3.812244199554576</v>
@@ -5458,10 +5458,10 @@
         <v>2.873474376386659</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.4097878464553008</v>
+        <v>0.4097878464553006</v>
       </c>
       <c r="Z60" t="n">
-        <v>-0.002163649589212134</v>
+        <v>-0.002163649589212136</v>
       </c>
       <c r="AA60" t="n">
         <v>1.068739190619572</v>
@@ -5508,13 +5508,13 @@
         <v>11.53918540609283</v>
       </c>
       <c r="N61" t="n">
-        <v>7.458008775305981</v>
+        <v>7.45800877530598</v>
       </c>
       <c r="O61" t="n">
-        <v>15.99107013470073</v>
+        <v>15.99107013470074</v>
       </c>
       <c r="P61" t="n">
-        <v>3.983589168400248</v>
+        <v>3.983589168400247</v>
       </c>
       <c r="Q61" t="n">
         <v>1.951151323904418</v>
@@ -5526,7 +5526,7 @@
         <v>1.74515430184486</v>
       </c>
       <c r="T61" t="n">
-        <v>0.6625849293930137</v>
+        <v>0.6625849293930136</v>
       </c>
       <c r="U61" t="n">
         <v>3.394680662318971</v>
@@ -5544,7 +5544,7 @@
         <v>0.1269338088289556</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.001951157441436983</v>
+        <v>-0.001951157441436984</v>
       </c>
       <c r="AA61" t="n">
         <v>0.4269608319037553</v>
@@ -5597,7 +5597,7 @@
         <v>18.9390552717517</v>
       </c>
       <c r="P62" t="n">
-        <v>5.373220367431494</v>
+        <v>5.373220367431493</v>
       </c>
       <c r="Q62" t="n">
         <v>2.905799587193989</v>
@@ -5606,7 +5606,7 @@
         <v>8.448656459430889</v>
       </c>
       <c r="S62" t="n">
-        <v>2.632351224461237</v>
+        <v>2.632351224461236</v>
       </c>
       <c r="T62" t="n">
         <v>1.192255929234785</v>
@@ -5624,10 +5624,10 @@
         <v>2.285735836924619</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.2302530784255471</v>
+        <v>0.2302530784255472</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.005865992766540945</v>
+        <v>0.005865992766540947</v>
       </c>
       <c r="AA62" t="n">
         <v>0.6548747352038176</v>
@@ -5656,7 +5656,7 @@
         <v>34.6498235204786</v>
       </c>
       <c r="H63" t="n">
-        <v>23.85144145273053</v>
+        <v>23.85144145273052</v>
       </c>
       <c r="I63" t="n">
         <v>44.96706183396526</v>
@@ -5668,19 +5668,19 @@
         <v>12.41652336213694</v>
       </c>
       <c r="L63" t="n">
-        <v>25.45845494209299</v>
+        <v>25.458454942093</v>
       </c>
       <c r="M63" t="n">
-        <v>1.533048186891904</v>
+        <v>1.533048186891905</v>
       </c>
       <c r="N63" t="n">
         <v>0.1577135713681024</v>
       </c>
       <c r="O63" t="n">
-        <v>3.663979949075877</v>
+        <v>3.663979949075884</v>
       </c>
       <c r="P63" t="n">
-        <v>0.7842006956336389</v>
+        <v>0.784200695633638</v>
       </c>
       <c r="Q63" t="n">
         <v>-0.1868691759043477</v>
@@ -5689,7 +5689,7 @@
         <v>2.517202743063795</v>
       </c>
       <c r="S63" t="n">
-        <v>0.4171728494905911</v>
+        <v>0.4171728494905902</v>
       </c>
       <c r="T63" t="n">
         <v>-0.1185912784192984</v>
@@ -5698,19 +5698,19 @@
         <v>1.472032923602248</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1804069098629639</v>
+        <v>0.1804069098629637</v>
       </c>
       <c r="W63" t="n">
         <v>-0.0829736390609126</v>
       </c>
       <c r="X63" t="n">
-        <v>0.7623328562478497</v>
+        <v>0.7623328562478493</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.03225551628329032</v>
+        <v>0.03225551628329026</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.0181485785289357</v>
+        <v>-0.01814857852893571</v>
       </c>
       <c r="AA63" t="n">
         <v>0.2310981206122006</v>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>8.966608446600869</v>
+        <v>8.966608446600871</v>
       </c>
       <c r="E64" t="n">
         <v>5.521613288698236</v>
@@ -5736,10 +5736,10 @@
         <v>13.04539160478844</v>
       </c>
       <c r="G64" t="n">
-        <v>10.0352369205525</v>
+        <v>10.03523692055251</v>
       </c>
       <c r="H64" t="n">
-        <v>5.739780429303002</v>
+        <v>5.739780429303</v>
       </c>
       <c r="I64" t="n">
         <v>14.89536153868729</v>
@@ -5751,16 +5751,16 @@
         <v>-2.462217762726416</v>
       </c>
       <c r="L64" t="n">
-        <v>0.4525637271672629</v>
+        <v>0.4525637271672664</v>
       </c>
       <c r="M64" t="n">
         <v>-8.451338370078396</v>
       </c>
       <c r="N64" t="n">
-        <v>-7.495247902798546</v>
+        <v>-7.49524790279855</v>
       </c>
       <c r="O64" t="n">
-        <v>-8.45360124239587</v>
+        <v>-8.453601242395866</v>
       </c>
       <c r="P64" t="n">
         <v>1.371891086291162</v>
@@ -5778,25 +5778,25 @@
         <v>1.146971306501947</v>
       </c>
       <c r="U64" t="n">
-        <v>3.80818091405704</v>
+        <v>3.808180914057041</v>
       </c>
       <c r="V64" t="n">
         <v>1.640961087237951</v>
       </c>
       <c r="W64" t="n">
-        <v>0.5715743986096238</v>
+        <v>0.5715743986096237</v>
       </c>
       <c r="X64" t="n">
         <v>2.874318347765433</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.4086503352466256</v>
+        <v>0.4086503352466254</v>
       </c>
       <c r="Z64" t="n">
-        <v>-0.0002485335070915723</v>
+        <v>-0.0002485335070915775</v>
       </c>
       <c r="AA64" t="n">
-        <v>1.060702076306749</v>
+        <v>1.060702076306748</v>
       </c>
     </row>
     <row r="65">
@@ -5822,7 +5822,7 @@
         <v>10.00149036500862</v>
       </c>
       <c r="H65" t="n">
-        <v>7.50184776313264</v>
+        <v>7.501847763132644</v>
       </c>
       <c r="I65" t="n">
         <v>12.04983944547446</v>
@@ -5834,7 +5834,7 @@
         <v>19.74234899331271</v>
       </c>
       <c r="L65" t="n">
-        <v>35.97260059162255</v>
+        <v>35.97260059162254</v>
       </c>
       <c r="M65" t="n">
         <v>34.04936903892315</v>
@@ -5867,16 +5867,16 @@
         <v>1.541428951866441</v>
       </c>
       <c r="W65" t="n">
-        <v>0.6242648813558493</v>
+        <v>0.6242648813558495</v>
       </c>
       <c r="X65" t="n">
         <v>2.961701550506488</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.2614477818052022</v>
+        <v>0.2614477818052025</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.02881012898721132</v>
+        <v>0.02881012898721133</v>
       </c>
       <c r="AA65" t="n">
         <v>0.6967408211454028</v>
@@ -5899,7 +5899,7 @@
         <v>11.04180485701142</v>
       </c>
       <c r="F66" t="n">
-        <v>22.17505337276786</v>
+        <v>22.17505337276785</v>
       </c>
       <c r="G66" t="n">
         <v>24.01742830532192</v>
@@ -5923,13 +5923,13 @@
         <v>1.383463313450902</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.1023288352693417</v>
+        <v>-0.1023288352693434</v>
       </c>
       <c r="O66" t="n">
-        <v>3.565110705412811</v>
+        <v>3.565110705412817</v>
       </c>
       <c r="P66" t="n">
-        <v>2.005164587043923</v>
+        <v>2.005164587043922</v>
       </c>
       <c r="Q66" t="n">
         <v>0.6931189004512266</v>
@@ -5956,10 +5956,10 @@
         <v>1.741307429916728</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.1904173979949657</v>
+        <v>0.1904173979949656</v>
       </c>
       <c r="Z66" t="n">
-        <v>-0.008697872574608646</v>
+        <v>-0.008697872574608649</v>
       </c>
       <c r="AA66" t="n">
         <v>0.5809574572537246</v>
@@ -6006,7 +6006,7 @@
         <v>6.857037205605004</v>
       </c>
       <c r="N67" t="n">
-        <v>3.97527971638316</v>
+        <v>3.975279716383159</v>
       </c>
       <c r="O67" t="n">
         <v>10.23477252336755</v>
@@ -6039,10 +6039,10 @@
         <v>2.157574415865737</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.2343440106417728</v>
+        <v>0.2343440106417727</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.005146186215502392</v>
+        <v>0.005146186215502387</v>
       </c>
       <c r="AA67" t="n">
         <v>0.6547774699610324</v>
@@ -6065,19 +6065,19 @@
         <v>-0.5269306748433982</v>
       </c>
       <c r="F68" t="n">
-        <v>1.018234481241388</v>
+        <v>1.018234481241386</v>
       </c>
       <c r="G68" t="n">
-        <v>5.397363577277878</v>
+        <v>5.397363577277879</v>
       </c>
       <c r="H68" t="n">
         <v>2.762880214870346</v>
       </c>
       <c r="I68" t="n">
-        <v>8.332870055913837</v>
+        <v>8.332870055913835</v>
       </c>
       <c r="J68" t="n">
-        <v>4.119693223330923</v>
+        <v>4.119693223330922</v>
       </c>
       <c r="K68" t="n">
         <v>1.744513711264723</v>
@@ -6092,16 +6092,16 @@
         <v>1.403924847372885</v>
       </c>
       <c r="O68" t="n">
-        <v>6.582932173848146</v>
+        <v>6.58293217384815</v>
       </c>
       <c r="P68" t="n">
-        <v>4.657155407216546</v>
+        <v>4.657155407216545</v>
       </c>
       <c r="Q68" t="n">
         <v>2.567457039777186</v>
       </c>
       <c r="R68" t="n">
-        <v>6.950243624561912</v>
+        <v>6.950243624561911</v>
       </c>
       <c r="S68" t="n">
         <v>3.532560620497787</v>
@@ -6122,7 +6122,7 @@
         <v>3.417058812015776</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.4507610380945574</v>
+        <v>0.4507610380945573</v>
       </c>
       <c r="Z68" t="n">
         <v>0.0104850996698169</v>
@@ -6187,13 +6187,13 @@
         <v>9.553322134582666</v>
       </c>
       <c r="S69" t="n">
-        <v>1.955348024863928</v>
+        <v>1.955348024863927</v>
       </c>
       <c r="T69" t="n">
         <v>0.7547686887272401</v>
       </c>
       <c r="U69" t="n">
-        <v>3.901793110142724</v>
+        <v>3.901793110142725</v>
       </c>
       <c r="V69" t="n">
         <v>0.5637084153083276</v>
@@ -6205,10 +6205,10 @@
         <v>1.43661062707217</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.06572524208029573</v>
+        <v>0.06572524208029587</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.0009653255274935605</v>
+        <v>0.0009653255274935622</v>
       </c>
       <c r="AA69" t="n">
         <v>0.2890384351794323</v>
@@ -6228,10 +6228,10 @@
         <v>-2.450853683966129</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.009767892178039</v>
+        <v>-2.00976789217804</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.599335912825721</v>
+        <v>-2.599335912825719</v>
       </c>
       <c r="G70" t="n">
         <v>-1.98755337875548</v>
@@ -6240,28 +6240,28 @@
         <v>-1.99697802932217</v>
       </c>
       <c r="I70" t="n">
-        <v>-1.321855474884121</v>
+        <v>-1.321855474884117</v>
       </c>
       <c r="J70" t="n">
         <v>4.781390400053155</v>
       </c>
       <c r="K70" t="n">
-        <v>2.481796927381579</v>
+        <v>2.48179692738158</v>
       </c>
       <c r="L70" t="n">
-        <v>7.647898328054655</v>
+        <v>7.647898328054659</v>
       </c>
       <c r="M70" t="n">
         <v>9.369446841520549</v>
       </c>
       <c r="N70" t="n">
-        <v>5.624020382253241</v>
+        <v>5.624020382253242</v>
       </c>
       <c r="O70" t="n">
         <v>13.42129956685032</v>
       </c>
       <c r="P70" t="n">
-        <v>6.422432562524225</v>
+        <v>6.422432562524226</v>
       </c>
       <c r="Q70" t="n">
         <v>3.795274488404823</v>
@@ -6270,7 +6270,7 @@
         <v>9.16074498858978</v>
       </c>
       <c r="S70" t="n">
-        <v>4.206397493714367</v>
+        <v>4.206397493714368</v>
       </c>
       <c r="T70" t="n">
         <v>2.186398906518367</v>
@@ -6285,10 +6285,10 @@
         <v>0.891096358910185</v>
       </c>
       <c r="X70" t="n">
-        <v>3.834169769343559</v>
+        <v>3.83416976934356</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.4935501395326894</v>
+        <v>0.4935501395326893</v>
       </c>
       <c r="Z70" t="n">
         <v>0.02624427454204849</v>
@@ -6320,10 +6320,10 @@
         <v>-3.30004330462236</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.478733042377334</v>
+        <v>-2.47873304237733</v>
       </c>
       <c r="I71" t="n">
-        <v>-3.897509677031167</v>
+        <v>-3.897509677031163</v>
       </c>
       <c r="J71" t="n">
         <v>13.93539784048663</v>
@@ -6341,10 +6341,10 @@
         <v>16.40704464511394</v>
       </c>
       <c r="O71" t="n">
-        <v>31.50468736380837</v>
+        <v>31.50468736380836</v>
       </c>
       <c r="P71" t="n">
-        <v>9.876364191070572</v>
+        <v>9.876364191070573</v>
       </c>
       <c r="Q71" t="n">
         <v>6.003211762719957</v>
@@ -6359,7 +6359,7 @@
         <v>2.662424585525183</v>
       </c>
       <c r="U71" t="n">
-        <v>7.927388200300634</v>
+        <v>7.927388200300633</v>
       </c>
       <c r="V71" t="n">
         <v>2.341677927244435</v>
@@ -6371,7 +6371,7 @@
         <v>4.09386849697642</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.4808182302655374</v>
+        <v>0.4808182302655375</v>
       </c>
       <c r="Z71" t="n">
         <v>0.03534435197260784</v>
@@ -6397,25 +6397,25 @@
         <v>-0.3940099082652031</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1515381051620128</v>
+        <v>0.1515381051620146</v>
       </c>
       <c r="G72" t="n">
         <v>6.705186601475315</v>
       </c>
       <c r="H72" t="n">
-        <v>4.207613695205282</v>
+        <v>4.207613695205283</v>
       </c>
       <c r="I72" t="n">
-        <v>9.279855775827508</v>
+        <v>9.27985577582751</v>
       </c>
       <c r="J72" t="n">
         <v>12.11372031498578</v>
       </c>
       <c r="K72" t="n">
-        <v>7.739745441168404</v>
+        <v>7.739745441168403</v>
       </c>
       <c r="L72" t="n">
-        <v>16.67323824718103</v>
+        <v>16.67323824718102</v>
       </c>
       <c r="M72" t="n">
         <v>13.89475994782383</v>
@@ -6457,7 +6457,7 @@
         <v>0.3872774489285473</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.01723181480298856</v>
+        <v>0.01723181480298857</v>
       </c>
       <c r="AA72" t="n">
         <v>0.9966969575325183</v>
